--- a/2_FCU_PSU_v03/2_FCU_PSU_v03.xlsx
+++ b/2_FCU_PSU_v03/2_FCU_PSU_v03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69390bb4cacf394b/Pulpit/ESATAN_PARSER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69390bb4cacf394b/Pulpit/ESATAN_PARSER/2_FCU_PSU_v03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C4595AC-453D-4533-8CC3-8188423A069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{7C4595AC-453D-4533-8CC3-8188423A069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F13B831-05D3-40B4-BAFD-39B982418665}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="381">
   <si>
     <t>PID</t>
   </si>
@@ -798,9 +798,6 @@
     <t>PSU_SND_MZ</t>
   </si>
   <si>
-    <t>PSU_MZ</t>
-  </si>
-  <si>
     <t>PSU_PZ</t>
   </si>
   <si>
@@ -808,9 +805,6 @@
   </si>
   <si>
     <t>PSU_SND_PZ</t>
-  </si>
-  <si>
-    <t>PSU_FRAME_MZ</t>
   </si>
   <si>
     <t>PSU_FR_ST_MZ_2_2</t>
@@ -2266,9 +2260,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2296,6 +2287,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2628,8 +2622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2660,7 +2654,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="129" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="128" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="129" t="s">
         <v>232</v>
@@ -2748,24 +2742,20 @@
         <v>232</v>
       </c>
       <c r="AH1" s="129" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AI1" s="129" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="137" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD2" s="136">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="135" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="138"/>
+      <c r="AD2" s="135">
         <v>1.078334696238159</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="134" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="135" t="s">
-        <v>253</v>
-      </c>
+      <c r="C3" s="145"/>
       <c r="AE3" s="134">
         <v>0.23067387782057958</v>
       </c>
@@ -2773,7 +2763,7 @@
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="78" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E4" s="79">
         <v>200</v>
@@ -2843,7 +2833,7 @@
     <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="78" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E5" s="79"/>
       <c r="F5" s="80">
@@ -2911,7 +2901,7 @@
     <row r="6" spans="1:35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="78" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E6" s="79"/>
       <c r="F6" s="80">
@@ -2979,7 +2969,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="D7" s="78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E7" s="79"/>
       <c r="F7" s="80">
@@ -3047,7 +3037,7 @@
     <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="D8" s="78" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E8" s="79"/>
       <c r="F8" s="80">
@@ -3115,7 +3105,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="78" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E9" s="79"/>
       <c r="F9" s="80">
@@ -3183,7 +3173,7 @@
     <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="78" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E10" s="79"/>
       <c r="F10" s="80">
@@ -3251,7 +3241,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="78" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E11" s="79"/>
       <c r="F11" s="80">
@@ -3416,7 +3406,7 @@
         <v>245</v>
       </c>
       <c r="M13" s="104" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N13" s="104"/>
       <c r="O13" s="105">
@@ -3542,7 +3532,7 @@
     </row>
     <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="78" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E16" s="79">
         <v>204</v>
@@ -3611,7 +3601,7 @@
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="78" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E17" s="79"/>
       <c r="F17" s="80">
@@ -3749,33 +3739,33 @@
     <row r="19" spans="1:35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="138" t="s">
-        <v>281</v>
-      </c>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="142"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="141"/>
-      <c r="W19" s="141"/>
-      <c r="X19" s="141"/>
-      <c r="Y19" s="141"/>
-      <c r="Z19" s="141"/>
-      <c r="AA19" s="141"/>
+      <c r="C19" s="137" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="138"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="140"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="140"/>
+      <c r="Y19" s="140"/>
+      <c r="Z19" s="140"/>
+      <c r="AA19" s="140"/>
       <c r="AE19">
         <v>0.31351326841253108</v>
       </c>
@@ -3785,7 +3775,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="78" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E20" s="80">
         <v>206</v>
@@ -3860,7 +3850,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="78" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E21" s="80"/>
       <c r="F21" s="80">
@@ -3933,7 +3923,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="78" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E22" s="80"/>
       <c r="F22" s="80">
@@ -4006,7 +3996,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="78" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E23" s="80"/>
       <c r="F23" s="80">
@@ -4079,7 +4069,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="78" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E24" s="80"/>
       <c r="F24" s="80">
@@ -4152,7 +4142,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="78" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E25" s="80"/>
       <c r="F25" s="80">
@@ -4225,7 +4215,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="78" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E26" s="80"/>
       <c r="F26" s="80">
@@ -4298,7 +4288,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="78" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E27" s="80"/>
       <c r="F27" s="80">
@@ -4371,7 +4361,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="78" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E28" s="80"/>
       <c r="F28" s="80">
@@ -4444,7 +4434,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="78" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E29" s="80"/>
       <c r="F29" s="80">
@@ -4517,7 +4507,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="78" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E30" s="80"/>
       <c r="F30" s="80">
@@ -4590,7 +4580,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="78" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E31" s="80"/>
       <c r="F31" s="80">
@@ -4663,7 +4653,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="78" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E32" s="80"/>
       <c r="F32" s="80">
@@ -4736,7 +4726,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="78" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E33" s="80"/>
       <c r="F33" s="80">
@@ -4809,7 +4799,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="78" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E34" s="80"/>
       <c r="F34" s="80">
@@ -4882,7 +4872,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="78" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E35" s="80"/>
       <c r="F35" s="80">
@@ -4955,7 +4945,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="78" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E36" s="80"/>
       <c r="F36" s="80">
@@ -5028,7 +5018,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="78" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E37" s="80"/>
       <c r="F37" s="80">
@@ -5101,7 +5091,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="78" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E38" s="80"/>
       <c r="F38" s="80">
@@ -5174,7 +5164,7 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="78" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E39" s="80"/>
       <c r="F39" s="80">
@@ -5247,7 +5237,7 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="78" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E40" s="80"/>
       <c r="F40" s="80">
@@ -5320,7 +5310,7 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="78" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E41" s="80"/>
       <c r="F41" s="80">
@@ -5393,7 +5383,7 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="78" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E42" s="80"/>
       <c r="F42" s="80">
@@ -5466,7 +5456,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="78" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E43" s="80"/>
       <c r="F43" s="80">
@@ -5539,7 +5529,7 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="78" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E44" s="80"/>
       <c r="F44" s="80">
@@ -5612,7 +5602,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="78" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E45" s="80"/>
       <c r="F45" s="80">
@@ -5685,7 +5675,7 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="78" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E46" s="80"/>
       <c r="F46" s="80">
@@ -5758,7 +5748,7 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="78" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E47" s="80"/>
       <c r="F47" s="80">
@@ -5831,7 +5821,7 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="78" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E48" s="80"/>
       <c r="F48" s="80">
@@ -5904,7 +5894,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="78" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E49" s="80"/>
       <c r="F49" s="80">
@@ -5977,7 +5967,7 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="78" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E50" s="80"/>
       <c r="F50" s="80">
@@ -6050,7 +6040,7 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="78" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E51" s="80"/>
       <c r="F51" s="80">
@@ -6123,7 +6113,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="78" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E52" s="80"/>
       <c r="F52" s="80">
@@ -6196,7 +6186,7 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="78" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E53" s="80"/>
       <c r="F53" s="80">
@@ -6269,7 +6259,7 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="78" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E54" s="80"/>
       <c r="F54" s="80">
@@ -6342,7 +6332,7 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="78" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E55" s="80"/>
       <c r="F55" s="80">
@@ -6415,7 +6405,7 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="78" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E56" s="80"/>
       <c r="F56" s="80">
@@ -6488,7 +6478,7 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="78" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E57" s="80"/>
       <c r="F57" s="80">
@@ -6561,7 +6551,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="78" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E58" s="80"/>
       <c r="F58" s="80">
@@ -6634,7 +6624,7 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="78" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E59" s="80"/>
       <c r="F59" s="80">
@@ -6707,7 +6697,7 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="78" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E60" s="80"/>
       <c r="F60" s="80">
@@ -6780,7 +6770,7 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="78" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E61" s="80"/>
       <c r="F61" s="80">
@@ -6853,7 +6843,7 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="78" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E62" s="80"/>
       <c r="F62" s="80">
@@ -6926,7 +6916,7 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="78" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E63" s="80"/>
       <c r="F63" s="80">
@@ -6999,7 +6989,7 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="78" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E64" s="80"/>
       <c r="F64" s="80">
@@ -7072,7 +7062,7 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="78" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E65" s="80"/>
       <c r="F65" s="80">
@@ -7145,7 +7135,7 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E66" s="80"/>
       <c r="F66" s="80">
@@ -7218,7 +7208,7 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="78" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E67" s="80"/>
       <c r="F67" s="80">
@@ -7291,7 +7281,7 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="78" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E68" s="80"/>
       <c r="F68" s="80">
@@ -7359,11 +7349,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:35" s="136" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="137" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD69" s="136">
+    <row r="69" spans="1:35" s="135" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD69" s="135">
         <v>1.0783345643696258</v>
       </c>
     </row>
@@ -7401,7 +7391,7 @@
     </row>
     <row r="71" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D71" s="78" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E71" s="79">
         <v>210</v>
@@ -7470,7 +7460,7 @@
     </row>
     <row r="72" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D72" s="78" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E72" s="79"/>
       <c r="F72" s="80">
@@ -7537,7 +7527,7 @@
     </row>
     <row r="73" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D73" s="78" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E73" s="79"/>
       <c r="F73" s="80">
@@ -7604,7 +7594,7 @@
     </row>
     <row r="74" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D74" s="78" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E74" s="79"/>
       <c r="F74" s="80">
@@ -7671,7 +7661,7 @@
     </row>
     <row r="75" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D75" s="78" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E75" s="79"/>
       <c r="F75" s="80">
@@ -7738,7 +7728,7 @@
     </row>
     <row r="76" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D76" s="78" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E76" s="79"/>
       <c r="F76" s="80">
@@ -7805,7 +7795,7 @@
     </row>
     <row r="77" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D77" s="78" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E77" s="79"/>
       <c r="F77" s="80">
@@ -7872,7 +7862,7 @@
     </row>
     <row r="78" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D78" s="78" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E78" s="79"/>
       <c r="F78" s="80">
@@ -8039,7 +8029,7 @@
         <v>245</v>
       </c>
       <c r="M80" s="104" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N80" s="104"/>
       <c r="O80" s="105">
@@ -8149,7 +8139,7 @@
     </row>
     <row r="82" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C82" s="68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D82" s="1"/>
       <c r="I82" s="1"/>
@@ -8165,7 +8155,7 @@
     </row>
     <row r="83" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D83" s="78" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E83" s="79">
         <v>214</v>
@@ -8234,7 +8224,7 @@
     </row>
     <row r="84" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D84" s="78" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E84" s="79"/>
       <c r="F84" s="80">
@@ -8301,7 +8291,7 @@
     </row>
     <row r="85" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C85" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="68"/>
       <c r="E85" s="103">
@@ -8370,40 +8360,40 @@
       </c>
     </row>
     <row r="86" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="138" t="s">
-        <v>280</v>
-      </c>
-      <c r="D86" s="139"/>
-      <c r="E86" s="140"/>
-      <c r="F86" s="141"/>
-      <c r="G86" s="141"/>
-      <c r="H86" s="141"/>
-      <c r="I86" s="141"/>
-      <c r="J86" s="141"/>
-      <c r="K86" s="141"/>
-      <c r="L86" s="141"/>
-      <c r="M86" s="141"/>
-      <c r="N86" s="141"/>
-      <c r="O86" s="142"/>
-      <c r="P86" s="142"/>
-      <c r="Q86" s="141"/>
-      <c r="R86" s="141"/>
-      <c r="S86" s="141"/>
-      <c r="T86" s="141"/>
-      <c r="U86" s="141"/>
-      <c r="V86" s="141"/>
-      <c r="W86" s="141"/>
-      <c r="X86" s="141"/>
-      <c r="Y86" s="141"/>
-      <c r="Z86" s="141"/>
-      <c r="AA86" s="141"/>
+      <c r="C86" s="137" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86" s="138"/>
+      <c r="E86" s="139"/>
+      <c r="F86" s="140"/>
+      <c r="G86" s="140"/>
+      <c r="H86" s="140"/>
+      <c r="I86" s="140"/>
+      <c r="J86" s="140"/>
+      <c r="K86" s="140"/>
+      <c r="L86" s="140"/>
+      <c r="M86" s="140"/>
+      <c r="N86" s="140"/>
+      <c r="O86" s="141"/>
+      <c r="P86" s="141"/>
+      <c r="Q86" s="140"/>
+      <c r="R86" s="140"/>
+      <c r="S86" s="140"/>
+      <c r="T86" s="140"/>
+      <c r="U86" s="140"/>
+      <c r="V86" s="140"/>
+      <c r="W86" s="140"/>
+      <c r="X86" s="140"/>
+      <c r="Y86" s="140"/>
+      <c r="Z86" s="140"/>
+      <c r="AA86" s="140"/>
       <c r="AE86" s="1">
         <v>0.31351329969112857</v>
       </c>
     </row>
     <row r="87" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D87" s="78" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E87" s="80">
         <v>216</v>
@@ -8475,7 +8465,7 @@
     </row>
     <row r="88" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D88" s="78" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E88" s="80"/>
       <c r="F88" s="80">
@@ -8545,7 +8535,7 @@
     </row>
     <row r="89" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D89" s="78" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E89" s="80"/>
       <c r="F89" s="80">
@@ -8615,7 +8605,7 @@
     </row>
     <row r="90" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D90" s="78" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E90" s="80"/>
       <c r="F90" s="80">
@@ -8685,7 +8675,7 @@
     </row>
     <row r="91" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D91" s="78" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E91" s="80"/>
       <c r="F91" s="80">
@@ -8755,7 +8745,7 @@
     </row>
     <row r="92" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D92" s="78" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E92" s="80"/>
       <c r="F92" s="80">
@@ -8825,7 +8815,7 @@
     </row>
     <row r="93" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D93" s="78" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E93" s="80"/>
       <c r="F93" s="80">
@@ -8895,7 +8885,7 @@
     </row>
     <row r="94" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D94" s="78" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E94" s="80"/>
       <c r="F94" s="80">
@@ -8965,7 +8955,7 @@
     </row>
     <row r="95" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D95" s="78" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E95" s="80"/>
       <c r="F95" s="80">
@@ -9035,7 +9025,7 @@
     </row>
     <row r="96" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D96" s="78" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E96" s="80"/>
       <c r="F96" s="80">
@@ -9105,7 +9095,7 @@
     </row>
     <row r="97" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D97" s="78" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E97" s="80"/>
       <c r="F97" s="80">
@@ -9175,7 +9165,7 @@
     </row>
     <row r="98" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D98" s="78" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E98" s="80"/>
       <c r="F98" s="80">
@@ -9245,7 +9235,7 @@
     </row>
     <row r="99" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D99" s="78" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E99" s="80"/>
       <c r="F99" s="80">
@@ -9315,7 +9305,7 @@
     </row>
     <row r="100" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D100" s="78" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E100" s="80"/>
       <c r="F100" s="80">
@@ -9385,7 +9375,7 @@
     </row>
     <row r="101" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D101" s="78" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E101" s="80"/>
       <c r="F101" s="80">
@@ -9455,7 +9445,7 @@
     </row>
     <row r="102" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D102" s="78" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E102" s="80"/>
       <c r="F102" s="80">
@@ -9525,7 +9515,7 @@
     </row>
     <row r="103" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D103" s="78" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E103" s="80"/>
       <c r="F103" s="80">
@@ -9595,7 +9585,7 @@
     </row>
     <row r="104" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D104" s="78" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E104" s="80"/>
       <c r="F104" s="80">
@@ -9665,7 +9655,7 @@
     </row>
     <row r="105" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D105" s="78" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E105" s="80"/>
       <c r="F105" s="80">
@@ -9735,7 +9725,7 @@
     </row>
     <row r="106" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D106" s="78" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E106" s="80"/>
       <c r="F106" s="80">
@@ -9805,7 +9795,7 @@
     </row>
     <row r="107" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D107" s="78" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E107" s="80"/>
       <c r="F107" s="80">
@@ -9875,7 +9865,7 @@
     </row>
     <row r="108" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D108" s="78" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E108" s="80"/>
       <c r="F108" s="80">
@@ -9945,7 +9935,7 @@
     </row>
     <row r="109" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D109" s="78" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E109" s="80"/>
       <c r="F109" s="80">
@@ -10015,7 +10005,7 @@
     </row>
     <row r="110" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D110" s="78" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E110" s="80"/>
       <c r="F110" s="80">
@@ -10085,7 +10075,7 @@
     </row>
     <row r="111" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D111" s="78" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E111" s="80"/>
       <c r="F111" s="80">
@@ -10155,7 +10145,7 @@
     </row>
     <row r="112" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D112" s="78" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E112" s="80"/>
       <c r="F112" s="80">
@@ -10225,7 +10215,7 @@
     </row>
     <row r="113" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D113" s="78" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E113" s="80"/>
       <c r="F113" s="80">
@@ -10295,7 +10285,7 @@
     </row>
     <row r="114" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D114" s="78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E114" s="80"/>
       <c r="F114" s="80">
@@ -10365,7 +10355,7 @@
     </row>
     <row r="115" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D115" s="78" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E115" s="80"/>
       <c r="F115" s="80">
@@ -10435,7 +10425,7 @@
     </row>
     <row r="116" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D116" s="78" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E116" s="80"/>
       <c r="F116" s="80">
@@ -10505,7 +10495,7 @@
     </row>
     <row r="117" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D117" s="78" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E117" s="80"/>
       <c r="F117" s="80">
@@ -10575,7 +10565,7 @@
     </row>
     <row r="118" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D118" s="78" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E118" s="80"/>
       <c r="F118" s="80">
@@ -10645,7 +10635,7 @@
     </row>
     <row r="119" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D119" s="78" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E119" s="80"/>
       <c r="F119" s="80">
@@ -10715,7 +10705,7 @@
     </row>
     <row r="120" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D120" s="78" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E120" s="80"/>
       <c r="F120" s="80">
@@ -10785,7 +10775,7 @@
     </row>
     <row r="121" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D121" s="78" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E121" s="80"/>
       <c r="F121" s="80">
@@ -10855,7 +10845,7 @@
     </row>
     <row r="122" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D122" s="78" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E122" s="80"/>
       <c r="F122" s="80">
@@ -10925,7 +10915,7 @@
     </row>
     <row r="123" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D123" s="78" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E123" s="80"/>
       <c r="F123" s="80">
@@ -10995,7 +10985,7 @@
     </row>
     <row r="124" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D124" s="78" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E124" s="80"/>
       <c r="F124" s="80">
@@ -11065,7 +11055,7 @@
     </row>
     <row r="125" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D125" s="78" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E125" s="80"/>
       <c r="F125" s="80">
@@ -11135,7 +11125,7 @@
     </row>
     <row r="126" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D126" s="78" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E126" s="80"/>
       <c r="F126" s="80">
@@ -11205,7 +11195,7 @@
     </row>
     <row r="127" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D127" s="78" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E127" s="80"/>
       <c r="F127" s="80">
@@ -11275,7 +11265,7 @@
     </row>
     <row r="128" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D128" s="78" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E128" s="80"/>
       <c r="F128" s="80">
@@ -11345,7 +11335,7 @@
     </row>
     <row r="129" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D129" s="78" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E129" s="80"/>
       <c r="F129" s="80">
@@ -11415,7 +11405,7 @@
     </row>
     <row r="130" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D130" s="78" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E130" s="80"/>
       <c r="F130" s="80">
@@ -11485,7 +11475,7 @@
     </row>
     <row r="131" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D131" s="78" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E131" s="80"/>
       <c r="F131" s="80">
@@ -11555,7 +11545,7 @@
     </row>
     <row r="132" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D132" s="78" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E132" s="80"/>
       <c r="F132" s="80">
@@ -11625,7 +11615,7 @@
     </row>
     <row r="133" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D133" s="78" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E133" s="80"/>
       <c r="F133" s="80">
@@ -11695,7 +11685,7 @@
     </row>
     <row r="134" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D134" s="78" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E134" s="80"/>
       <c r="F134" s="80">
@@ -11765,7 +11755,7 @@
     </row>
     <row r="135" spans="4:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D135" s="78" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E135" s="80"/>
       <c r="F135" s="80">
@@ -12212,7 +12202,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="111" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B19" s="112">
         <v>6189</v>
@@ -12224,12 +12214,12 @@
         <v>97.3</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="111" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B20" s="112">
         <v>5653</v>
@@ -12241,12 +12231,12 @@
         <v>103.92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="111" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B21" s="112">
         <v>5653</v>
@@ -12258,12 +12248,12 @@
         <v>103.92</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="111" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B22" s="112">
         <v>6189</v>
@@ -12275,12 +12265,12 @@
         <v>97.3</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="111" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B23" s="112">
         <v>5653</v>
@@ -12292,7 +12282,7 @@
         <v>103.92</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15208,11 +15198,11 @@
         <v>109</v>
       </c>
       <c r="D1" s="13"/>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="144"/>
-      <c r="G1" s="145"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="144"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>

--- a/2_FCU_PSU_v03/2_FCU_PSU_v03.xlsx
+++ b/2_FCU_PSU_v03/2_FCU_PSU_v03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69390bb4cacf394b/Pulpit/ESATAN_PARSER/2_FCU_PSU_v03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{7C4595AC-453D-4533-8CC3-8188423A069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F13B831-05D3-40B4-BAFD-39B982418665}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{7C4595AC-453D-4533-8CC3-8188423A069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9C7D31D-FED1-4FF0-8150-DB7A6E678911}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="383">
   <si>
     <t>PID</t>
   </si>
@@ -1192,6 +1192,12 @@
   </si>
   <si>
     <t>D2_PZ</t>
+  </si>
+  <si>
+    <t>PSU_MZ</t>
+  </si>
+  <si>
+    <t>PSU_FRAME_MZ</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="42"/>
       </patternFill>
     </fill>
@@ -2261,9 +2267,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2288,7 +2291,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2623,7 +2629,7 @@
   <dimension ref="A1:AI135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2749,13 +2755,17 @@
       </c>
     </row>
     <row r="2" spans="1:35" s="135" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="138"/>
+      <c r="B2" s="144" t="s">
+        <v>381</v>
+      </c>
       <c r="AD2" s="135">
         <v>1.078334696238159</v>
       </c>
     </row>
     <row r="3" spans="1:35" s="134" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="145"/>
+      <c r="C3" s="145" t="s">
+        <v>382</v>
+      </c>
       <c r="AE3" s="134">
         <v>0.23067387782057958</v>
       </c>
@@ -3739,33 +3749,33 @@
     <row r="19" spans="1:35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="137" t="s">
+      <c r="C19" s="136" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="138"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="140"/>
-      <c r="U19" s="140"/>
-      <c r="V19" s="140"/>
-      <c r="W19" s="140"/>
-      <c r="X19" s="140"/>
-      <c r="Y19" s="140"/>
-      <c r="Z19" s="140"/>
-      <c r="AA19" s="140"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
       <c r="AE19">
         <v>0.31351326841253108</v>
       </c>
@@ -7350,7 +7360,7 @@
       </c>
     </row>
     <row r="69" spans="1:35" s="135" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="136" t="s">
+      <c r="B69" s="144" t="s">
         <v>249</v>
       </c>
       <c r="AD69" s="135">
@@ -8360,33 +8370,33 @@
       </c>
     </row>
     <row r="86" spans="3:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="137" t="s">
+      <c r="C86" s="136" t="s">
         <v>278</v>
       </c>
-      <c r="D86" s="138"/>
-      <c r="E86" s="139"/>
-      <c r="F86" s="140"/>
-      <c r="G86" s="140"/>
-      <c r="H86" s="140"/>
-      <c r="I86" s="140"/>
-      <c r="J86" s="140"/>
-      <c r="K86" s="140"/>
-      <c r="L86" s="140"/>
-      <c r="M86" s="140"/>
-      <c r="N86" s="140"/>
-      <c r="O86" s="141"/>
-      <c r="P86" s="141"/>
-      <c r="Q86" s="140"/>
-      <c r="R86" s="140"/>
-      <c r="S86" s="140"/>
-      <c r="T86" s="140"/>
-      <c r="U86" s="140"/>
-      <c r="V86" s="140"/>
-      <c r="W86" s="140"/>
-      <c r="X86" s="140"/>
-      <c r="Y86" s="140"/>
-      <c r="Z86" s="140"/>
-      <c r="AA86" s="140"/>
+      <c r="D86" s="137"/>
+      <c r="E86" s="138"/>
+      <c r="F86" s="139"/>
+      <c r="G86" s="139"/>
+      <c r="H86" s="139"/>
+      <c r="I86" s="139"/>
+      <c r="J86" s="139"/>
+      <c r="K86" s="139"/>
+      <c r="L86" s="139"/>
+      <c r="M86" s="139"/>
+      <c r="N86" s="139"/>
+      <c r="O86" s="140"/>
+      <c r="P86" s="140"/>
+      <c r="Q86" s="139"/>
+      <c r="R86" s="139"/>
+      <c r="S86" s="139"/>
+      <c r="T86" s="139"/>
+      <c r="U86" s="139"/>
+      <c r="V86" s="139"/>
+      <c r="W86" s="139"/>
+      <c r="X86" s="139"/>
+      <c r="Y86" s="139"/>
+      <c r="Z86" s="139"/>
+      <c r="AA86" s="139"/>
       <c r="AE86" s="1">
         <v>0.31351329969112857</v>
       </c>
@@ -15198,11 +15208,11 @@
         <v>109</v>
       </c>
       <c r="D1" s="13"/>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="143"/>
-      <c r="G1" s="144"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="143"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
